--- a/r4-naboto-development/StructureDefinition-at-core-patient.xlsx
+++ b/r4-naboto-development/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T13:22:13+00:00</t>
+    <t>2022-11-02T13:31:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
